--- a/inst/dados_premissas/2023/total_domicilios.xlsx
+++ b/inst/dados_premissas/2023/total_domicilios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\projetos\epe4md-git3\inst\dados_premissas\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projetos_r\epe4md\inst\dados_premissas\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDED7888-90C2-41DD-8ACB-E9D17B083770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD93C7F-888E-4B43-B621-E879C83F74C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -97,9 +97,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -137,7 +137,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -243,7 +243,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -385,7 +385,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -395,18 +395,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="23" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="23" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,412 +414,412 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>59138129.003021143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>59049537.613293052</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2011</v>
       </c>
       <c r="B3">
-        <v>60274971.012716025</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>62933881.668752998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>61421610.681690149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>64115948.481182836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>62581981.182169363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>65322616.859163187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>63766595.382312879</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>66548262.205932729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>64959670.043559559</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>67767557.495372251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>66148593.01471094</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>68956766.782845527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>67352162.358958989</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>70131857.014487311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>68569558.137046471</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>71323301.904886752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>69786611.591660574</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>72516548.946460366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>71001451.673591301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>73644540.249428794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2021</v>
       </c>
       <c r="B13">
-        <v>72212363.444101244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>74691888.768557459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>73417379.117373198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>75727265.412186384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2023</v>
       </c>
       <c r="B15">
-        <v>74615166.869992167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>76792667.651526272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2024</v>
       </c>
       <c r="B16">
-        <v>75805070.617079303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>77865978.288499475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2025</v>
       </c>
       <c r="B17">
-        <v>76986203.187072664</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>78928131.487552479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2026</v>
       </c>
       <c r="B18">
-        <v>78157392.717698827</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>79979998.427726462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2027</v>
       </c>
       <c r="B19">
-        <v>79317457.55800581</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>81022134.318752408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2028</v>
       </c>
       <c r="B20">
-        <v>80465371.70900923</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>82055100.602473453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2029</v>
       </c>
       <c r="B21">
-        <v>81600427.40274246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>83079343.653667331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2030</v>
       </c>
       <c r="B22">
-        <v>82721874.353064939</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>84092723.346203133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2031</v>
       </c>
       <c r="B23">
-        <v>83828643.001719803</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>85090462.357313335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2032</v>
       </c>
       <c r="B24">
-        <v>84919772.674836576</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>86069918.238079742</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2033</v>
       </c>
       <c r="B25">
-        <v>85994615.333245307</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>87030802.50375405</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2034</v>
       </c>
       <c r="B26">
-        <v>87052578.346214905</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>87972674.938292563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2035</v>
       </c>
       <c r="B27">
-        <v>88092914.320484787</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>88894694.590383127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2036</v>
       </c>
       <c r="B28">
-        <v>89114723.720352575</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+        <v>89795777.31299518</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2037</v>
       </c>
       <c r="B29">
-        <v>90117279.769513041</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+        <v>90675077.778213605</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2038</v>
       </c>
       <c r="B30">
-        <v>91100028.360148892</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+        <v>91532090.141515687</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2039</v>
       </c>
       <c r="B31">
-        <v>92062424.066691503</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+        <v>92366164.698335037</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2040</v>
       </c>
       <c r="B32">
-        <v>93003956.355551571</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+        <v>93176571.749800786</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2041</v>
       </c>
       <c r="B33">
-        <v>93924215.683079466</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+        <v>93962835.660677895</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2042</v>
       </c>
       <c r="B34">
-        <v>94822914.547324955</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+        <v>94724532.526655331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2043</v>
       </c>
       <c r="B35">
-        <v>95699636.771202028</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+        <v>95461191.455215901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2044</v>
       </c>
       <c r="B36">
-        <v>96553798.654277846</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+        <v>96172174.964238703</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2045</v>
       </c>
       <c r="B37">
-        <v>97384818.963859499</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+        <v>96856611.408127978</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2046</v>
       </c>
       <c r="B38">
-        <v>98192230.585322231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+        <v>97513684.993397385</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2047</v>
       </c>
       <c r="B39">
-        <v>98975640.090954766</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+        <v>98142837.987652689</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2048</v>
       </c>
       <c r="B40">
-        <v>99734448.359178543</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+        <v>98743529.99881056</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2049</v>
       </c>
       <c r="B41">
-        <v>100467852.92232786</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99315025.308366403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2050</v>
       </c>
       <c r="B42">
-        <v>101175152.61561994</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99856604.670627013</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2051</v>
       </c>
       <c r="B43">
-        <v>101899855.555484</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100367714.67331454</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2052</v>
       </c>
       <c r="B44">
-        <v>102620207.683704</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100847884.87286158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2053</v>
       </c>
       <c r="B45">
-        <v>103340559.81192499</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101296476.37195718</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2054</v>
       </c>
       <c r="B46">
-        <v>104060911.940146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101712752.12858215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2055</v>
       </c>
       <c r="B47">
-        <v>104781264.06836601</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+        <v>102096309.43197367</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2056</v>
       </c>
       <c r="B48">
-        <v>105501616.196587</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+        <v>102096309.43197367</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2057</v>
       </c>
       <c r="B49">
-        <v>106221968.324808</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+        <v>102096309.43197367</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2058</v>
       </c>
       <c r="B50">
-        <v>106942320.45302799</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+        <v>102096309.43197367</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2059</v>
       </c>
       <c r="B51">
-        <v>107662672.581249</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+        <v>102096309.43197367</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2060</v>
       </c>
       <c r="B52">
-        <v>108383024.70947</v>
+        <v>102096309.43197367</v>
       </c>
     </row>
   </sheetData>
